--- a/medicine/Enfance/Céline_Garcia_(écrivain)/Céline_Garcia_(écrivain).xlsx
+++ b/medicine/Enfance/Céline_Garcia_(écrivain)/Céline_Garcia_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9line_Garcia_(%C3%A9crivain)</t>
+          <t>Céline_Garcia_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Céline Garcia est un écrivaine, scénariste et plasticienne[1] française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Céline Garcia est un écrivaine, scénariste et plasticienne française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9line_Garcia_(%C3%A9crivain)</t>
+          <t>Céline_Garcia_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle développe l'univers Arthur et les Minimoys avec son mari Patrice Garcia, qui est ensuite développé pour le cinéma par Luc Besson[2].
-Elle est également plasticienne, notamment avec des œuvres de collage[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle développe l'univers Arthur et les Minimoys avec son mari Patrice Garcia, qui est ensuite développé pour le cinéma par Luc Besson.
+Elle est également plasticienne, notamment avec des œuvres de collage.
 </t>
         </is>
       </c>
